--- a/Final Tables/Model Comparison.xlsx
+++ b/Final Tables/Model Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgios\Desktop\GitHub\COVID\updated-gp\epidemic-gaussian-process\Final Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgiospapadopoulos/Desktop/Statistics Personal Notes/COVID/epidemic-gaussian-process/Final Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196CA29-D5E8-4977-9350-8A8A033B1C44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59D6AC-648E-C74E-9CE8-3CFD71AE7B2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="2310" windowWidth="43635" windowHeight="17745" xr2:uid="{86C8A0EC-3175-4A90-811B-D9648CCCCF20}"/>
+    <workbookView xWindow="0" yWindow="2320" windowWidth="33600" windowHeight="17740" xr2:uid="{86C8A0EC-3175-4A90-811B-D9648CCCCF20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>$f(t, S(t)*I(t))$</t>
   </si>
@@ -78,13 +78,31 @@
     <t>$f(t, S(t)*I(t), Home(t)*Work(t)*Recreational(t), Weekday(t))$</t>
   </si>
   <si>
-    <t>Group B (Log ALL)</t>
-  </si>
-  <si>
-    <t>Group C (Log Target)</t>
-  </si>
-  <si>
     <t>Group A (No Log)</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>All kernels are ARD</t>
+  </si>
+  <si>
+    <t>SE + Linear + Rational Quadratic</t>
+  </si>
+  <si>
+    <t>SE x Linear x Rational Quadratic</t>
+  </si>
+  <si>
+    <t>Test Mean Model Variance</t>
+  </si>
+  <si>
+    <t>Test Mean Error</t>
+  </si>
+  <si>
+    <t>Group B (Log on S, I, Daily Cases)</t>
+  </si>
+  <si>
+    <t>Group C (Log on Daily Cases)</t>
   </si>
 </sst>
 </file>
@@ -532,41 +550,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6703820C-1EDB-4C8F-A05C-196F8543CE63}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="I1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -604,7 +643,7 @@
         <v>-3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -642,7 +681,7 @@
         <v>-6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -680,7 +719,7 @@
         <v>0.19969999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -718,7 +757,7 @@
         <v>0.25659999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -754,6 +793,27 @@
       </c>
       <c r="L6" s="5">
         <v>0.25829999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
